--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
@@ -363,9 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -401,25 +403,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="E2">
         <v>81.7</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
@@ -80,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,12 +369,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -395,13 +397,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42644.477754629632</v>
+      </c>
       <c r="C2">
         <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>78.2</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,8 +373,8 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,14 +405,28 @@
       <c r="A2" s="1">
         <v>42644.477754629632</v>
       </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
         <v>78.2</v>
       </c>
+      <c r="E2">
+        <v>77.349997999999999</v>
+      </c>
+      <c r="F2">
+        <v>-1.0869590792838919</v>
+      </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>9891.2999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
@@ -369,13 +369,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/GILD/GILDBagTradeLongHold.xlsx
@@ -369,13 +369,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -425,8 +425,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42654.743668981479</v>
+      </c>
       <c r="C3">
         <v>9891.2999999999993</v>
+      </c>
+      <c r="D3">
+        <v>75.5</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
